--- a/output/proc_2_CHARLS/Descript_CHARLS.xlsx
+++ b/output/proc_2_CHARLS/Descript_CHARLS.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">OUTP1M_RATIO</t>
   </si>
   <si>
-    <t xml:space="preserve">AVGINDIINCOME_TOTAL</t>
+    <t xml:space="preserve">AVGINDIINCOME_EARN</t>
   </si>
   <si>
     <t xml:space="preserve">AVGEDU</t>
@@ -449,25 +449,25 @@
         <v>378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00000000000000000589025815189479</v>
+        <v>0.437585979580945</v>
       </c>
       <c r="D3" t="n">
-        <v>1.12635725216499</v>
+        <v>0.322394087595835</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.5095637149679</v>
+        <v>0.0253333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.707224159690336</v>
+        <v>0.212970535714286</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.262683453328337</v>
+        <v>0.347860576923077</v>
       </c>
       <c r="H3" t="n">
-        <v>0.341317216645428</v>
+        <v>0.591106878831591</v>
       </c>
       <c r="I3" t="n">
-        <v>8.46100765091173</v>
+        <v>1.81446601941748</v>
       </c>
     </row>
     <row r="4">
@@ -579,25 +579,25 @@
         <v>378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00000000000000000589025815189479</v>
+        <v>0.437585979580945</v>
       </c>
       <c r="D3" t="n">
-        <v>1.12635725216499</v>
+        <v>0.322394087595835</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.5095637149679</v>
+        <v>0.0253333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.707224159690336</v>
+        <v>0.212970535714286</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.262683453328337</v>
+        <v>0.347860576923077</v>
       </c>
       <c r="H3" t="n">
-        <v>0.341317216645428</v>
+        <v>0.591106878831591</v>
       </c>
       <c r="I3" t="n">
-        <v>8.46100765091173</v>
+        <v>1.81446601941748</v>
       </c>
     </row>
     <row r="4">

--- a/output/proc_2_CHARLS/Descript_CHARLS.xlsx
+++ b/output/proc_2_CHARLS/Descript_CHARLS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">AVGINDIINCOME_EARN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVGINDIINCOME_EARN2</t>
   </si>
   <si>
     <t xml:space="preserve">AVGEDU</t>
@@ -478,24 +481,53 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
+        <v>0.295144469126914</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.472205953990028</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000641777777777776</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0453565363297194</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.12100918791605</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.34941431291899</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.29228693562071</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>378</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.16702502832561</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.158170883755025</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>1.06521739130435</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>1.12159498207885</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1.20310245310245</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>1.93617021276596</v>
       </c>
     </row>
@@ -544,7 +576,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>378</v>
@@ -608,24 +640,53 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
+        <v>0.295144469126914</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.472205953990028</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000641777777777776</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0453565363297194</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.12100918791605</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.34941431291899</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.29228693562071</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>378</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.16702502832561</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.158170883755025</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>1.06521739130435</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>1.12159498207885</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1.20310245310245</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>1.93617021276596</v>
       </c>
     </row>
